--- a/data/trans_dic/P22_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22_R3-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.007168597416367163</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.009408015094602963</v>
+        <v>0.009408015094602965</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01687175933630642</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007146587652022967</v>
+        <v>0.007185391521248924</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008732447133574715</v>
+        <v>0.00845115929776279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006675019372837878</v>
+        <v>0.006552957710526218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00118658500240672</v>
+        <v>0.001193622202667194</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01045210600927325</v>
+        <v>0.01109108650014246</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009161245441581702</v>
+        <v>0.008848767950788133</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002901979193704906</v>
+        <v>0.003155994312591959</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003392054700075282</v>
+        <v>0.003210335307287919</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01127406726571194</v>
+        <v>0.01172721386999411</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01019498513781137</v>
+        <v>0.01055175104580767</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005911709311789349</v>
+        <v>0.006232634928017815</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.00378118523275607</v>
+        <v>0.00347308042517377</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02925265403082996</v>
+        <v>0.03342417448880491</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02486472522172633</v>
+        <v>0.02673343089416344</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02151381016208858</v>
+        <v>0.0223574992313334</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02149742473413744</v>
+        <v>0.01937285045399528</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02870310839366558</v>
+        <v>0.02955792146195181</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02610892525399099</v>
+        <v>0.02729737734066645</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01344371575255796</v>
+        <v>0.01447621086970585</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02345306727717419</v>
+        <v>0.02294532663518099</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02495652776705441</v>
+        <v>0.0257426679961962</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0225181020680491</v>
+        <v>0.0225087394273921</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01450043094157026</v>
+        <v>0.01487346710794284</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01885333691623807</v>
+        <v>0.01527352083712721</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.0329227404895388</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01390380658372277</v>
+        <v>0.01390380658372276</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.04017164974716252</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008616278837624142</v>
+        <v>0.009474936002566913</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01724110988718569</v>
+        <v>0.01760267115151841</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02225452872109417</v>
+        <v>0.02266261348312638</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006246587753473916</v>
+        <v>0.006832920993584007</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02856195452733623</v>
+        <v>0.02879219806542278</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02134638064084323</v>
+        <v>0.02091338569862271</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02224983538964666</v>
+        <v>0.0230179880194387</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00486485814506262</v>
+        <v>0.004707239885544542</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02112735239387233</v>
+        <v>0.02072313021916058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02155870495364958</v>
+        <v>0.02164268335792061</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0258486446295778</v>
+        <v>0.02495454399232066</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.007154731653862187</v>
+        <v>0.007011942519855621</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02454114268373838</v>
+        <v>0.02648548451258643</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03988714822515454</v>
+        <v>0.04001442841731276</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04590560606493849</v>
+        <v>0.04689852779590627</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02776224893820115</v>
+        <v>0.02840742888377301</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05451729316504705</v>
+        <v>0.05372943597695525</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04472215800545822</v>
+        <v>0.0439552793001558</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04475866307129447</v>
+        <v>0.04616457750980511</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01453402151531543</v>
+        <v>0.01442714448269727</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03480959151309103</v>
+        <v>0.03528014067919429</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03785953864897162</v>
+        <v>0.03776867802015161</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0421180577038444</v>
+        <v>0.04192941088051458</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01700600016065226</v>
+        <v>0.01652956279398766</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04373854755550725</v>
+        <v>0.0428964868421654</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05057142864594684</v>
+        <v>0.05020445084156124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05524538817503603</v>
+        <v>0.0555118379150332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03633580714399149</v>
+        <v>0.03711382816617408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03828855956619883</v>
+        <v>0.03791270906149292</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02569142898698777</v>
+        <v>0.02489559806062883</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03809900901724271</v>
+        <v>0.03683149431726614</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02734616431930439</v>
+        <v>0.02643992600420901</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04534448431387673</v>
+        <v>0.04571982013711382</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04191095427139978</v>
+        <v>0.0414958349530623</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05089102158440491</v>
+        <v>0.05310688186027457</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03456498582347258</v>
+        <v>0.03462747395251976</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06947176296380601</v>
+        <v>0.06969518031812333</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08761892046277901</v>
+        <v>0.08671835788243867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09286927424736563</v>
+        <v>0.09495427711504061</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06815428016490302</v>
+        <v>0.06828304615506517</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06872913341508656</v>
+        <v>0.06821811945275365</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05235235432354596</v>
+        <v>0.05053150199181968</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07275683833345535</v>
+        <v>0.06943553102348689</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04618658752839289</v>
+        <v>0.04537107672940733</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06477202615897228</v>
+        <v>0.06510386230985099</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06474415750491509</v>
+        <v>0.06482651049259956</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07633439335548046</v>
+        <v>0.07791037386922428</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05246812600883726</v>
+        <v>0.05311278509173581</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.103598291215191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06173776150962944</v>
+        <v>0.06173776150962945</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09992605049143932</v>
@@ -1105,7 +1105,7 @@
         <v>0.0918279463801296</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05884165871048019</v>
+        <v>0.05884165871048018</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06837906311639919</v>
+        <v>0.07004962395628352</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07858913698388054</v>
+        <v>0.08017489166461841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07721356985048844</v>
+        <v>0.07743806017596998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04694101436157763</v>
+        <v>0.04766184965265253</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07005401956399898</v>
+        <v>0.07325516548616527</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06055360455049784</v>
+        <v>0.06125121070532938</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0573032406412765</v>
+        <v>0.05832780656029058</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0450340857756678</v>
+        <v>0.04388587370588692</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0771387263300206</v>
+        <v>0.07815713503673982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07854235249580099</v>
+        <v>0.07701133117404074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07430672492091807</v>
+        <v>0.07353660488320661</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04852523052798093</v>
+        <v>0.04928188167388089</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.126771838022154</v>
+        <v>0.1259518187160032</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1420169477996897</v>
+        <v>0.1440993007892411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1336424183340416</v>
+        <v>0.1325616020233932</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0820845505070527</v>
+        <v>0.0803645374581588</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1379082999814391</v>
+        <v>0.1359061525662463</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1188565052726959</v>
+        <v>0.1198760857839155</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1091404562739002</v>
+        <v>0.1110389776532431</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07136045593601202</v>
+        <v>0.07035011269098074</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1205825445727454</v>
+        <v>0.124050265889823</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1223054101458078</v>
+        <v>0.1209224469319125</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1147189237220527</v>
+        <v>0.1116894258367785</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07015743710499311</v>
+        <v>0.07034090674335243</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.04031899684284826</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03245796394576751</v>
+        <v>0.0324579639457675</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03373887238433466</v>
+        <v>0.03400131432165637</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03873587149809752</v>
+        <v>0.03861089190101035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03948508947548745</v>
+        <v>0.03934531080520523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03120599942807743</v>
+        <v>0.03097084652109395</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03734129563777631</v>
+        <v>0.0373457315947784</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02810966123167201</v>
+        <v>0.02903685936537942</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02846927060701409</v>
+        <v>0.02873874421843935</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02365675909937645</v>
+        <v>0.02391670827455117</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03738898249964973</v>
+        <v>0.03718814071328195</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03469011959362939</v>
+        <v>0.0353121053295397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03551480348979524</v>
+        <v>0.035617891563332</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02841256094487483</v>
+        <v>0.02824205208599518</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04848418237554249</v>
+        <v>0.04797853043292512</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05457022790215176</v>
+        <v>0.05467126417213115</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05457214069224549</v>
+        <v>0.0544257899570972</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04543322237842259</v>
+        <v>0.04541425130451152</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05175283994460064</v>
+        <v>0.05192359969387195</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04170258402236036</v>
+        <v>0.04214151489726721</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04083436119401964</v>
+        <v>0.0420231460647305</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03303990950613313</v>
+        <v>0.03291714432074444</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04699371242755969</v>
+        <v>0.04743443109421654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04592895321650714</v>
+        <v>0.04585709026432324</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04542724593637192</v>
+        <v>0.04590545141029127</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0369577220181205</v>
+        <v>0.03693610182545613</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4169</v>
+        <v>4191</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9116</v>
+        <v>8822</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7523</v>
+        <v>7386</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9640</v>
+        <v>10230</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10260</v>
+        <v>9910</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3642</v>
+        <v>3961</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2115</v>
+        <v>2002</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16975</v>
+        <v>17657</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>22061</v>
+        <v>22833</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14082</v>
+        <v>14847</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4244</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17064</v>
+        <v>19497</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25957</v>
+        <v>27908</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24247</v>
+        <v>25198</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10722</v>
+        <v>9662</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26474</v>
+        <v>27262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29240</v>
+        <v>30571</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16872</v>
+        <v>18168</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14625</v>
+        <v>14308</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37576</v>
+        <v>38760</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48726</v>
+        <v>48706</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>34541</v>
+        <v>35430</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>21159</v>
+        <v>17142</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9278</v>
+        <v>10202</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16829</v>
+        <v>17182</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20137</v>
+        <v>20506</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5998</v>
+        <v>6561</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>30172</v>
+        <v>30415</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23359</v>
+        <v>22885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22366</v>
+        <v>23138</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5428</v>
+        <v>5253</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>45067</v>
+        <v>44205</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44634</v>
+        <v>44808</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49372</v>
+        <v>47664</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14853</v>
+        <v>14557</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26425</v>
+        <v>28518</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38934</v>
+        <v>39058</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41538</v>
+        <v>42436</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26656</v>
+        <v>27275</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>57590</v>
+        <v>56757</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>48938</v>
+        <v>48099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44992</v>
+        <v>46405</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16218</v>
+        <v>16099</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>74253</v>
+        <v>75257</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>78383</v>
+        <v>78195</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>80448</v>
+        <v>80087</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>35304</v>
+        <v>34315</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>48928</v>
+        <v>47986</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>44762</v>
+        <v>44437</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45509</v>
+        <v>45728</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38025</v>
+        <v>38839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38024</v>
+        <v>37651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>22500</v>
+        <v>21803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>29377</v>
+        <v>28399</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28649</v>
+        <v>27700</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>95756</v>
+        <v>96548</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>73801</v>
+        <v>73070</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>81162</v>
+        <v>84696</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>72383</v>
+        <v>72514</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>77714</v>
+        <v>77964</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>77553</v>
+        <v>76756</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>76502</v>
+        <v>78219</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>71322</v>
+        <v>71457</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>68254</v>
+        <v>67747</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45850</v>
+        <v>44255</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56100</v>
+        <v>53539</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48387</v>
+        <v>47533</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>136781</v>
+        <v>137482</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>114009</v>
+        <v>114154</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>121739</v>
+        <v>124253</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>109875</v>
+        <v>111225</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30476</v>
+        <v>31221</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>39532</v>
+        <v>40330</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39124</v>
+        <v>39238</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45811</v>
+        <v>46515</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23899</v>
+        <v>24992</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27415</v>
+        <v>27731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>28061</v>
+        <v>28563</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>40949</v>
+        <v>39905</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>60697</v>
+        <v>61498</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>75067</v>
+        <v>73604</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>74039</v>
+        <v>73272</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>91480</v>
+        <v>92907</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56502</v>
+        <v>56136</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>71438</v>
+        <v>72485</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>67717</v>
+        <v>67169</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>80109</v>
+        <v>78430</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>47049</v>
+        <v>46365</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>53811</v>
+        <v>54272</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>53446</v>
+        <v>54376</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>64887</v>
+        <v>63968</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>94881</v>
+        <v>97609</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>116894</v>
+        <v>115573</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>114306</v>
+        <v>111287</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>132261</v>
+        <v>132607</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>108788</v>
+        <v>109635</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>132018</v>
+        <v>131592</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>132763</v>
+        <v>132293</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>108637</v>
+        <v>107818</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>123710</v>
+        <v>123724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>99585</v>
+        <v>102870</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>100240</v>
+        <v>101189</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>87444</v>
+        <v>88405</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>244425</v>
+        <v>243112</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>241127</v>
+        <v>245450</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>244461</v>
+        <v>245171</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>203935</v>
+        <v>202711</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>156333</v>
+        <v>154703</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>185984</v>
+        <v>186329</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>183492</v>
+        <v>183000</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>158166</v>
+        <v>158100</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>171454</v>
+        <v>172020</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>147741</v>
+        <v>149296</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>143777</v>
+        <v>147963</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>122127</v>
+        <v>121673</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>307215</v>
+        <v>310096</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>319247</v>
+        <v>318747</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>312692</v>
+        <v>315984</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>265269</v>
+        <v>265114</v>
       </c>
     </row>
     <row r="24">
